--- a/3.environment/Zhoushan_continuous/result.xlsx
+++ b/3.environment/Zhoushan_continuous/result.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17760" windowHeight="17955" activeTab="1"/>
+    <workbookView windowWidth="15135" windowHeight="18360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>BE</t>
   </si>
@@ -38,18 +39,45 @@
   <si>
     <t>P/N</t>
   </si>
+  <si>
+    <t>BE_number</t>
+  </si>
+  <si>
+    <t>BE_environment</t>
+  </si>
+  <si>
+    <t>[4349.598548638873]</t>
+  </si>
+  <si>
+    <t>[3624.977602955237]</t>
+  </si>
+  <si>
+    <t>[4833.07665582066]</t>
+  </si>
+  <si>
+    <t>[4690.326317435919]</t>
+  </si>
+  <si>
+    <t>[4692.0280824896645]</t>
+  </si>
+  <si>
+    <t>[4580.34393847998]</t>
+  </si>
+  <si>
+    <t>[4583.558047551908]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -115,7 +143,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -130,8 +158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,11 +173,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,9 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,14 +214,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,16 +236,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,22 +260,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF282C34"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF282C34"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,31 +298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,13 +316,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,25 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,85 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,15 +485,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,28 +513,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +537,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -549,27 +562,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,13 +609,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,97 +618,103 @@
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,7 +727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,16 +737,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -727,31 +749,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3676,21 +3701,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F53"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12"/>
-    <col min="2" max="4" width="12.625"/>
-    <col min="6" max="6" width="12.625" style="14"/>
+    <col min="2" max="5" width="12.625"/>
+    <col min="6" max="6" width="12.625" style="13"/>
+    <col min="7" max="7" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3698,7 +3724,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>5</v>
       </c>
       <c r="B2">
@@ -3706,7 +3732,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>23564.5009841394</v>
       </c>
       <c r="B3">
@@ -3718,13 +3744,13 @@
       <c r="D3">
         <v>5366.11796752267</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <f>B3/(B2/10)</f>
         <v>1168.62761292932</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>5</v>
       </c>
       <c r="B4">
@@ -3732,7 +3758,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>17801.2312032608</v>
       </c>
       <c r="B5">
@@ -3744,13 +3770,13 @@
       <c r="D5">
         <v>5482.35662836512</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <f t="shared" ref="F4:F9" si="0">B5/(B4/10)</f>
         <v>418.678121320008</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6">
@@ -3758,7 +3784,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>12180.9167672436</v>
       </c>
       <c r="B7">
@@ -3770,13 +3796,13 @@
       <c r="D7">
         <v>5541.58560534476</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>263.251856574281</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8">
@@ -3784,7 +3810,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>6325.24826928728</v>
       </c>
       <c r="B9">
@@ -3796,16 +3822,16 @@
       <c r="D9">
         <v>5594.26284670449</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>195.00644776487</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>15</v>
       </c>
       <c r="B11">
@@ -3813,7 +3839,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>22868.8819122035</v>
       </c>
       <c r="B12">
@@ -3825,13 +3851,13 @@
       <c r="D12">
         <v>5223.9569080215</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f t="shared" ref="F12:F16" si="1">B12/(B11/10)</f>
         <v>2937.40406519286</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>15</v>
       </c>
       <c r="B13">
@@ -3839,7 +3865,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>16938.4381519749</v>
       </c>
       <c r="B14">
@@ -3851,13 +3877,13 @@
       <c r="D14">
         <v>5355.07225853395</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <f t="shared" si="1"/>
         <v>1039.05928995899</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>15</v>
       </c>
       <c r="B15">
@@ -3865,7 +3891,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>11337.72815262</v>
       </c>
       <c r="B16">
@@ -3877,13 +3903,13 @@
       <c r="D16">
         <v>5416.16294029595</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <f t="shared" si="1"/>
         <v>669.895841969828</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17">
@@ -3891,7 +3917,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>5609.15779122096</v>
       </c>
       <c r="B18">
@@ -3903,13 +3929,13 @@
       <c r="D18">
         <v>5466.70214852668</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <f t="shared" ref="F18:F23" si="2">B18/(B17/10)</f>
         <v>485.415907590623</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>15</v>
       </c>
       <c r="B19">
@@ -3917,7 +3943,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>4423.41752369684</v>
       </c>
       <c r="B20">
@@ -3929,16 +3955,16 @@
       <c r="D20">
         <v>4204.12537142095</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <f t="shared" si="2"/>
         <v>303.646396367384</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="16"/>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>25</v>
       </c>
       <c r="B22">
@@ -3946,7 +3972,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>22041.5253622896</v>
       </c>
       <c r="B23">
@@ -3958,13 +3984,13 @@
       <c r="D23">
         <v>5106.18576862877</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <f t="shared" si="2"/>
         <v>4313.67468029778</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>25</v>
       </c>
       <c r="B24">
@@ -3972,7 +3998,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>16600.9034162897</v>
       </c>
       <c r="B25">
@@ -3984,13 +4010,13 @@
       <c r="D25">
         <v>4349.59854863886</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <f t="shared" ref="F25:F29" si="3">B25/(B24/10)</f>
         <v>1236.18360088605</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26">
@@ -3998,7 +4024,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>10617.6593818875</v>
       </c>
       <c r="B27">
@@ -4010,13 +4036,13 @@
       <c r="D27">
         <v>5348.69664334147</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <f t="shared" si="3"/>
         <v>979.490174805096</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
       <c r="B28">
@@ -4024,7 +4050,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>5363.41740859479</v>
       </c>
       <c r="B29">
@@ -4036,13 +4062,13 @@
       <c r="D29">
         <v>5136.16409808765</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="13">
         <f t="shared" si="3"/>
         <v>659.996769714843</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30">
@@ -4050,7 +4076,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>3950.78081477096</v>
       </c>
       <c r="B31">
@@ -4062,16 +4088,16 @@
       <c r="D31">
         <v>4148.13543172609</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <f t="shared" ref="F31:F36" si="4">B31/(B30/10)</f>
         <v>454.660628252944</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="16"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>35</v>
       </c>
       <c r="B33">
@@ -4079,7 +4105,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>21301.0932412533</v>
       </c>
       <c r="B34">
@@ -4091,13 +4117,13 @@
       <c r="D34">
         <v>4986.13299053364</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="13">
         <f t="shared" si="4"/>
         <v>5378.31343776556</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>35</v>
       </c>
       <c r="B35">
@@ -4105,7 +4131,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>15952.1391967884</v>
       </c>
       <c r="B36">
@@ -4117,13 +4143,13 @@
       <c r="D36">
         <v>4327.17315009009</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="13">
         <f t="shared" si="4"/>
         <v>1565.40765566757</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="B37">
@@ -4131,7 +4157,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>9914.53840898801</v>
       </c>
       <c r="B38">
@@ -4143,13 +4169,13 @@
       <c r="D38">
         <v>5290.06085336945</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="13">
         <f t="shared" ref="F38:F42" si="5">B38/(B37/10)</f>
         <v>1236.07520985256</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>35</v>
       </c>
       <c r="B39">
@@ -4157,7 +4183,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>4559.05395445629</v>
       </c>
       <c r="B40">
@@ -4169,13 +4195,13 @@
       <c r="D40">
         <v>5129.65658562091</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="13">
         <f t="shared" si="5"/>
         <v>839.84022352914</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>35</v>
       </c>
       <c r="B41">
@@ -4183,7 +4209,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="17">
+      <c r="A42" s="15">
         <v>-1552.69679110458</v>
       </c>
       <c r="B42">
@@ -4195,16 +4221,16 @@
       <c r="D42">
         <v>5374.36937071016</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
         <f t="shared" si="5"/>
         <v>747.592348495262</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="16"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>45</v>
       </c>
       <c r="B44">
@@ -4212,7 +4238,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>20685.7061887742</v>
       </c>
       <c r="B45">
@@ -4224,13 +4250,13 @@
       <c r="D45">
         <v>4863.01552034495</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="13">
         <f t="shared" ref="F45:F49" si="6">B45/(B44/10)</f>
         <v>6250.14134778922</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46">
@@ -4238,7 +4264,7 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>15481.2569318127</v>
       </c>
       <c r="B47">
@@ -4250,13 +4276,13 @@
       <c r="D47">
         <v>4218.27271243119</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="13">
         <f t="shared" si="6"/>
         <v>1770.46410144029</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>45</v>
       </c>
       <c r="B48">
@@ -4264,7 +4290,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>11261.1618505603</v>
       </c>
       <c r="B49">
@@ -4276,13 +4302,13 @@
       <c r="D49">
         <v>4106.96005523197</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="13">
         <f t="shared" si="6"/>
         <v>1118.06170325455</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>45</v>
       </c>
       <c r="B50">
@@ -4290,7 +4316,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>3834.65058960708</v>
       </c>
       <c r="B51">
@@ -4302,13 +4328,13 @@
       <c r="D51">
         <v>5126.01396621063</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="13">
         <f>B51/(B50/10)</f>
         <v>1001.47676655528</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="7">
+      <c r="A52" s="5">
         <v>45</v>
       </c>
       <c r="B52">
@@ -4316,7 +4342,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="17">
+      <c r="A53" s="15">
         <v>-2178.4902476531</v>
       </c>
       <c r="B53">
@@ -4328,9 +4354,489 @@
       <c r="D53">
         <v>5336.79012529747</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="13">
         <f>B53/(B52/10)</f>
         <v>907.352450515256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="16">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>23838.2958690478</v>
+      </c>
+      <c r="D58">
+        <v>566.614325016875</v>
+      </c>
+      <c r="E58">
+        <v>26964.2756854474</v>
+      </c>
+      <c r="F58">
+        <v>5118.73098276545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="16">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>18717.8629728573</v>
+      </c>
+      <c r="D59">
+        <v>566.695391809782</v>
+      </c>
+      <c r="E59">
+        <v>26964.3360404081</v>
+      </c>
+      <c r="F59">
+        <v>5119.85178382734</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="16">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>13591.1978512879</v>
+      </c>
+      <c r="D60">
+        <v>566.496236612103</v>
+      </c>
+      <c r="E60">
+        <v>26963.8382887255</v>
+      </c>
+      <c r="F60">
+        <v>5122.4576803302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="16">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>35</v>
+      </c>
+      <c r="C61">
+        <v>8461.61851174477</v>
+      </c>
+      <c r="D61">
+        <v>566.37759792705</v>
+      </c>
+      <c r="E61">
+        <v>26963.5421954506</v>
+      </c>
+      <c r="F61">
+        <v>5124.44173879393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="16">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>45</v>
+      </c>
+      <c r="C62">
+        <v>3330.06499223799</v>
+      </c>
+      <c r="D62">
+        <v>566.265367514246</v>
+      </c>
+      <c r="E62">
+        <v>26963.279088119</v>
+      </c>
+      <c r="F62">
+        <v>5125.98860630373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="16">
+        <v>15</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>22895.5170149353</v>
+      </c>
+      <c r="D63">
+        <v>1380.29237765313</v>
+      </c>
+      <c r="E63">
+        <v>26752.5769601602</v>
+      </c>
+      <c r="F63">
+        <v>4953.53513514351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="16">
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>17938.7682436173</v>
+      </c>
+      <c r="D64">
+        <v>1380.44937964868</v>
+      </c>
+      <c r="E64">
+        <v>26752.7326659602</v>
+      </c>
+      <c r="F64">
+        <v>4955.67669512951</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="16">
+        <v>15</v>
+      </c>
+      <c r="B65">
+        <v>25</v>
+      </c>
+      <c r="C65">
+        <v>12977.8128012063</v>
+      </c>
+      <c r="D65">
+        <v>1380.65721265065</v>
+      </c>
+      <c r="E65">
+        <v>26752.9224216973</v>
+      </c>
+      <c r="F65">
+        <v>4957.78096313614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="16">
+        <v>15</v>
+      </c>
+      <c r="B66">
+        <v>35</v>
+      </c>
+      <c r="C66">
+        <v>8013.69304802607</v>
+      </c>
+      <c r="D66">
+        <v>1380.74336190806</v>
+      </c>
+      <c r="E66">
+        <v>26752.9129400437</v>
+      </c>
+      <c r="F66">
+        <v>4959.56472288844</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="16">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <v>45</v>
+      </c>
+      <c r="C67">
+        <v>3049.23837609069</v>
+      </c>
+      <c r="D67">
+        <v>1380.82790068153</v>
+      </c>
+      <c r="E67">
+        <v>26752.8772579472</v>
+      </c>
+      <c r="F67">
+        <v>4960.62466248333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="16">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+      <c r="C68">
+        <v>17463.6864922599</v>
+      </c>
+      <c r="D68">
+        <v>2100.75889952804</v>
+      </c>
+      <c r="E68">
+        <v>26814.060375519</v>
+      </c>
+      <c r="F68">
+        <v>4833.07665582065</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="16">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <v>12627.4247147821</v>
+      </c>
+      <c r="D69">
+        <v>2102.78935595684</v>
+      </c>
+      <c r="E69">
+        <v>26816.0204910314</v>
+      </c>
+      <c r="F69">
+        <v>4834.32256811698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="16">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <v>35</v>
+      </c>
+      <c r="C70">
+        <v>7804.48651169761</v>
+      </c>
+      <c r="D70">
+        <v>2099.20096532232</v>
+      </c>
+      <c r="E70">
+        <v>26816.2435637524</v>
+      </c>
+      <c r="F70">
+        <v>4832.15888192357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="16">
+        <v>25</v>
+      </c>
+      <c r="B71">
+        <v>45</v>
+      </c>
+      <c r="C71">
+        <v>2962.76055607321</v>
+      </c>
+      <c r="D71">
+        <v>2097.06690765671</v>
+      </c>
+      <c r="E71">
+        <v>26813.9467644868</v>
+      </c>
+      <c r="F71">
+        <v>4834.24873350154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="16">
+        <v>35</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>21584.7336418675</v>
+      </c>
+      <c r="D72">
+        <v>2616.91257589402</v>
+      </c>
+      <c r="E72">
+        <v>26546.8093764795</v>
+      </c>
+      <c r="F72">
+        <v>4690.32631743603</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="16">
+        <v>35</v>
+      </c>
+      <c r="B73">
+        <v>15</v>
+      </c>
+      <c r="C73">
+        <v>16893.1904805401</v>
+      </c>
+      <c r="D73">
+        <v>2615.20593673871</v>
+      </c>
+      <c r="E73">
+        <v>26546.4385410134</v>
+      </c>
+      <c r="F73">
+        <v>4692.02808248966</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="16">
+        <v>35</v>
+      </c>
+      <c r="B74">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>12191.541721951</v>
+      </c>
+      <c r="D74">
+        <v>2616.85520666425</v>
+      </c>
+      <c r="E74">
+        <v>26548.0195493997</v>
+      </c>
+      <c r="F74">
+        <v>4695.84904831377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="16">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <v>35</v>
+      </c>
+      <c r="C75">
+        <v>7505.72272864222</v>
+      </c>
+      <c r="D75">
+        <v>2616.55373023208</v>
+      </c>
+      <c r="E75">
+        <v>26547.7070260977</v>
+      </c>
+      <c r="F75">
+        <v>4692.98016206384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="16">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>45</v>
+      </c>
+      <c r="C76">
+        <v>2812.66959004735</v>
+      </c>
+      <c r="D76">
+        <v>2614.01070458463</v>
+      </c>
+      <c r="E76">
+        <v>26544.9672587594</v>
+      </c>
+      <c r="F76">
+        <v>4692.95265869499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="16">
+        <v>45</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>20930.5537767711</v>
+      </c>
+      <c r="D77">
+        <v>3033.51019216668</v>
+      </c>
+      <c r="E77">
+        <v>26254.235938178</v>
+      </c>
+      <c r="F77">
+        <v>4580.3439384804</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="16">
+        <v>45</v>
+      </c>
+      <c r="B78">
+        <v>15</v>
+      </c>
+      <c r="C78">
+        <v>16345.4193463928</v>
+      </c>
+      <c r="D78">
+        <v>3034.82995077132</v>
+      </c>
+      <c r="E78">
+        <v>26255.586368492</v>
+      </c>
+      <c r="F78">
+        <v>4583.5580475519</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="16">
+        <v>45</v>
+      </c>
+      <c r="B79">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>11766.9019271072</v>
+      </c>
+      <c r="D79">
+        <v>3035.87636568549</v>
+      </c>
+      <c r="E79">
+        <v>26256.5749740302</v>
+      </c>
+      <c r="F79">
+        <v>4581.518672495</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="16">
+        <v>45</v>
+      </c>
+      <c r="B80">
+        <v>35</v>
+      </c>
+      <c r="C80">
+        <v>7153.51633859569</v>
+      </c>
+      <c r="D80">
+        <v>3053.45617624493</v>
+      </c>
+      <c r="E80">
+        <v>26267.671008126</v>
+      </c>
+      <c r="F80">
+        <v>4588.77099808153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="16">
+        <v>45</v>
+      </c>
+      <c r="B81">
+        <v>45</v>
+      </c>
+      <c r="C81">
+        <v>2547.7337737252</v>
+      </c>
+      <c r="D81">
+        <v>3067.79687028891</v>
+      </c>
+      <c r="E81">
+        <v>26281.8880158344</v>
+      </c>
+      <c r="F81">
+        <v>4592.52386040452</v>
       </c>
     </row>
   </sheetData>
@@ -4344,8 +4850,8 @@
   <sheetPr/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:F46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4353,7 +4859,7 @@
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="12"/>
     <col min="4" max="4" width="12.625"/>
-    <col min="5" max="5" width="12.625" style="9"/>
+    <col min="5" max="5" width="12.625" style="8"/>
     <col min="6" max="7" width="12.625"/>
     <col min="9" max="9" width="13.75"/>
     <col min="10" max="10" width="12.625"/>
@@ -4366,1262 +4872,1262 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>23564.5009841394</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>584.313806464662</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>26831.8737743654</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>5366.11796752267</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6">
+      <c r="G2" s="5"/>
+      <c r="H2" s="4">
         <f>D2/(A2/10)</f>
         <v>1168.62761292932</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <f>E2-F2*B2/10-H2*A2/10</f>
         <v>23564.5009841394</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <f>E2/H2</f>
         <v>22.9601572626781</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>22868.8819122035</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1468.70203259643</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>26949.5623988106</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>5223.9569080215</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6">
+      <c r="G3" s="5"/>
+      <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="0">D3/(A3/10)</f>
         <v>979.13468839762</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I26" si="1">E3-F3*B3/10-H3*A3/10</f>
         <v>22868.8819122034</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J26" si="2">E3/H3</f>
         <v>27.5238562356669</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>25</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>22041.5253622896</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2156.83734014889</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>26751.4555867529</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>5106.18576862877</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6">
+      <c r="G4" s="5"/>
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>862.734936059556</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>22041.5253622896</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="2"/>
         <v>31.0077342050586</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>35</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>21301.0932412533</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2689.15671888278</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>26483.3164554029</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>4986.13299053364</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6">
+      <c r="G5" s="5"/>
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>768.330491109366</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
         <v>21301.0932412533</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
         <v>34.4686521774823</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>45</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>20685.7061887742</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>3125.07067389461</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>26242.2846228413</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>4863.01552034495</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6">
+      <c r="G6" s="2"/>
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>694.460149754358</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>20685.7061887742</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <f t="shared" si="2"/>
         <v>37.7880352560527</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>17801.2312032608</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>628.017181980012</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>26652.7833277885</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>5482.35662836512</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6">
+      <c r="G7" s="2"/>
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>1256.03436396002</v>
       </c>
-      <c r="I7" s="3">
-        <f>E7-F7*B7/10-H7*A7/10</f>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
         <v>17801.2312032608</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <f t="shared" si="2"/>
         <v>21.2197883215214</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>15</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>16938.4381519749</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1558.58893493848</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>26529.6354747144</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>5355.07225853395</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="6">
+      <c r="G8" s="2"/>
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>1039.05928995899</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>16938.438151975</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <f t="shared" si="2"/>
         <v>25.5323596363414</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:10">
-      <c r="A9" s="10">
+    <row r="9" s="7" customFormat="1" spans="1:10">
+      <c r="A9" s="9">
         <v>25</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>15</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>16600.9034162897</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>1854.27540132908</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>24979.5766405771</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>4349.59854863886</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13">
+      <c r="G9" s="10"/>
+      <c r="H9" s="12">
         <f t="shared" si="0"/>
         <v>741.710160531632</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f t="shared" si="1"/>
         <v>16600.9034162897</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <f t="shared" si="2"/>
         <v>33.6783530411294</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:10">
-      <c r="A10" s="10">
+    <row r="10" s="7" customFormat="1" spans="1:10">
+      <c r="A10" s="9">
         <v>35</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>15</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>15952.1391967884</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>2348.11148350136</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>24791.0104054249</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>4327.17315009009</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13">
+      <c r="G10" s="10"/>
+      <c r="H10" s="12">
         <f t="shared" si="0"/>
         <v>670.888995286103</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <f t="shared" si="1"/>
         <v>15952.1391967884</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <f t="shared" si="2"/>
         <v>36.9524773541004</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>45</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>15</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>15481.2569318127</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>2655.69615216044</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>24464.3621526199</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>4218.27271243119</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="6">
+      <c r="G11" s="2"/>
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>590.154700480098</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
         <v>15481.2569318127</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f t="shared" si="2"/>
         <v>41.4541511449758</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>25</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>12180.9167672436</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>658.129641435702</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>26693.0104220412</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>5541.58560534476</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6">
+      <c r="G12" s="2"/>
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>1316.2592828714</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
         <v>12180.9167672436</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f t="shared" si="2"/>
         <v>20.2794470431469</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>25</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>11337.72815262</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>1674.73960492457</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>26552.8751082845</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>5416.16294029595</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="6">
+      <c r="G13" s="2"/>
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
         <v>1116.49306994971</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <f t="shared" si="1"/>
         <v>11337.7281526201</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <f t="shared" si="2"/>
         <v>23.7823913313501</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>25</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>25</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>10617.6593818875</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>2448.72543701274</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>26438.1264272539</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>5348.69664334147</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="6">
+      <c r="G14" s="2"/>
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>979.490174805096</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <f t="shared" si="1"/>
         <v>10617.6593818875</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <f t="shared" si="2"/>
         <v>26.9917219256586</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>35</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>25</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>9914.53840898801</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>3090.1880246314</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>26229.878567043</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>5290.06085336945</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="6">
+      <c r="G15" s="2"/>
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>882.9108641804</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <f t="shared" si="1"/>
         <v>9914.53840898798</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <f t="shared" si="2"/>
         <v>29.7084107028086</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>45</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>25</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>11261.1618505603</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>2795.15425813637</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>24323.7162467766</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>4106.96005523197</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="6">
+      <c r="G16" s="2"/>
+      <c r="H16" s="4">
         <f t="shared" si="0"/>
         <v>621.145390696971</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <f t="shared" si="1"/>
         <v>11261.1618505603</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <f t="shared" si="2"/>
         <v>39.1594570467368</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>5</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>35</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>6325.24826928728</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>682.522567177045</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>26587.69079993</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>5594.26284670449</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="6">
+      <c r="G17" s="2"/>
+      <c r="H17" s="4">
         <f t="shared" si="0"/>
         <v>1365.04513435409</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <f t="shared" si="1"/>
         <v>6325.24826928724</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f t="shared" si="2"/>
         <v>19.4775177250903</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>35</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>5609.15779122096</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>1698.95567656718</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>26441.5709876315</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>5466.70214852668</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="6">
+      <c r="G18" s="2"/>
+      <c r="H18" s="4">
         <f t="shared" si="0"/>
         <v>1132.63711771145</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <f t="shared" si="1"/>
         <v>5609.15779122094</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <f t="shared" si="2"/>
         <v>23.3451390336368</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>25</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>35</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>5363.41740859479</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>2309.98869400195</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>25649.9804459035</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>5136.16409808765</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="6">
+      <c r="G19" s="2"/>
+      <c r="H19" s="4">
         <f t="shared" si="0"/>
         <v>923.99547760078</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <f t="shared" si="1"/>
         <v>5363.41740859477</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <f t="shared" si="2"/>
         <v>27.7598549643398</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>35</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>35</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>4559.05395445629</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>2939.44078235199</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>25452.2927864814</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>5129.65658562091</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="6">
+      <c r="G20" s="2"/>
+      <c r="H20" s="4">
         <f t="shared" si="0"/>
         <v>839.84022352914</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <f t="shared" si="1"/>
         <v>4559.05395445623</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <f t="shared" si="2"/>
         <v>30.3061130836612</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>45</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>35</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>3834.65058960708</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>3505.16868294349</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>25280.8681542877</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>5126.01396621063</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="6">
+      <c r="G21" s="2"/>
+      <c r="H21" s="4">
         <f t="shared" si="0"/>
         <v>778.926373987442</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <f t="shared" si="1"/>
         <v>3834.650589607</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <f t="shared" si="2"/>
         <v>32.4560433419029</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>5</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>45</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5">
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3">
         <v>25000</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>5600</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="6">
+      <c r="G22" s="2"/>
+      <c r="H22" s="4">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <f t="shared" si="1"/>
         <v>-750</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <f t="shared" si="2"/>
         <v>22.7272727272727</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>15</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>45</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <v>4423.41752369684</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>1366.40878365323</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>24708.3904787443</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>4204.12537142095</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="6">
+      <c r="G23" s="2"/>
+      <c r="H23" s="4">
         <f t="shared" si="0"/>
         <v>910.939189102153</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <f t="shared" si="1"/>
         <v>4423.41752369679</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <f t="shared" si="2"/>
         <v>27.1240833354612</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>25</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>45</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="1">
         <v>3950.78081477096</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>2045.97282713825</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>24663.3630846766</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <v>4148.13543172609</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="6">
+      <c r="G24" s="2"/>
+      <c r="H24" s="4">
         <f t="shared" si="0"/>
         <v>818.3891308553</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <f t="shared" si="1"/>
         <v>3950.78081477095</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <f t="shared" si="2"/>
         <v>30.1364743919569</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>35</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>45</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <v>-1552.69679110458</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>3364.16556822868</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>25996.1309453198</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <v>5374.36937071016</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="6">
+      <c r="G25" s="2"/>
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>961.190162351051</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <f t="shared" si="1"/>
         <v>-1552.6967911046</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <f t="shared" si="2"/>
         <v>27.0457730047234</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>45</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>45</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>-2178.4902476531</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>4083.08602731865</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>25920.1513435041</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>5336.79012529747</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="6">
+      <c r="G26" s="2"/>
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>907.352450515256</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <f t="shared" si="1"/>
         <v>-2178.49024765316</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <f t="shared" si="2"/>
         <v>28.5667948863586</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="4">
+      <c r="B32" s="1">
         <v>0.5</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="1">
         <v>1.5</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="1">
         <v>2.5</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="1">
         <v>3.5</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="1">
         <v>4.5</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>5</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>26831.8737743654</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>26652.7833277885</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>26693.0104220412</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>26587.69079993</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="3">
         <v>25000</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>15</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>26949.5623988106</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>26529.6354747144</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>26552.8751082845</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>26441.5709876315</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <v>24708.3904787443</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>26751.4555867529</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>24979.5766405771</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>26438.1264272539</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>25649.9804459035</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>24663.3630846766</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="4">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>26483.3164554029</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>24791.0104054249</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>26229.878567043</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>25452.2927864814</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>25996.1309453198</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>45</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>26242.2846228413</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>24464.3621526199</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>24323.7162467766</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>25280.8681542877</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <v>25920.1513435041</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="7:10">
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="7:10">
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="4">
+      <c r="B41" s="1">
         <v>0.5</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <v>1.5</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="1">
         <v>2.5</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="1">
         <v>3.5</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="1">
         <v>4.5</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="4">
+      <c r="A42" s="1">
         <v>5</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>22.9601572626781</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>21.2197883215214</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <v>20.2794470431469</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="3">
         <v>19.4775177250903</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="3">
         <v>22.7272727272727</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="4">
+      <c r="A43" s="1">
         <v>15</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="3">
         <v>27.5238562356669</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>25.5323596363414</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <v>23.7823913313501</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="3">
         <v>23.3451390336368</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="3">
         <v>27.1240833354612</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="4">
+      <c r="A44" s="1">
         <v>25</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>31.0077342050586</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>33.6783530411294</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <v>26.9917219256586</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="3">
         <v>27.7598549643398</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="3">
         <v>30.1364743919569</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="4">
+      <c r="A45" s="1">
         <v>35</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="3">
         <v>34.4686521774823</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>36.9524773541004</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <v>29.7084107028086</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="3">
         <v>30.3061130836612</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="3">
         <v>27.0457730047234</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="4">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="3">
         <v>37.7880352560527</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>41.4541511449758</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>39.1594570467368</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="3">
         <v>32.4560433419029</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="3">
         <v>28.5667948863586</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
     </row>
     <row r="47" spans="7:10">
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
     </row>
     <row r="48" spans="7:10">
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
     </row>
     <row r="50" spans="7:10">
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="7:10">
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="7:10">
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="7:10">
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
     </row>
     <row r="54" spans="7:8">
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:H25">
@@ -5637,10 +6143,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5649,731 +6155,1362 @@
     <col min="4" max="4" width="12.625"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="9.375"/>
+    <col min="7" max="7" width="11.125"/>
     <col min="9" max="9" width="13.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>23564.5009841394</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>584.313806464662</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>26831.8737743654</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>5366.11796752267</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>1168.62761292932</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <f>D2/(A2/10)</f>
         <v>1168.62761292932</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <f>E2-F2*B2/10-H2*A2/10</f>
         <v>23564.5009841394</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>15</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>17801.2312032608</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>628.017181980012</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>26652.7833277885</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>5482.35662836512</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>1256.03436396002</v>
       </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H25" si="0">D3/(A3/10)</f>
+      <c r="H3" s="4">
+        <f>D3/(A3/10)</f>
         <v>1256.03436396002</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I25" si="1">E3-F3*B3/10-H3*A3/10</f>
+      <c r="I3" s="2">
+        <f>E3-F3*B3/10-H3*A3/10</f>
         <v>17801.2312032608</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>25</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>12180.9167672436</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>658.129641435702</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>26693.0104220412</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>5541.58560534476</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>1316.2592828714</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
+        <f>D4/(A4/10)</f>
+        <v>1316.2592828714</v>
+      </c>
+      <c r="I4" s="2">
+        <f>E4-F4*B4/10-H4*A4/10</f>
+        <v>12180.9167672436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6325.24826928728</v>
+      </c>
+      <c r="D5" s="2">
+        <v>682.522567177045</v>
+      </c>
+      <c r="E5" s="3">
+        <v>26587.69079993</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5594.26284670449</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1365.04513435409</v>
+      </c>
+      <c r="H5" s="4">
+        <f>D5/(A5/10)</f>
+        <v>1365.04513435409</v>
+      </c>
+      <c r="I5" s="2">
+        <f>E5-F5*B5/10-H5*A5/10</f>
+        <v>6325.24826928724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22868.8819122035</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1468.70203259643</v>
+      </c>
+      <c r="E7" s="3">
+        <v>26949.5623988106</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5223.9569080215</v>
+      </c>
+      <c r="G7" s="5">
+        <v>979.134688397624</v>
+      </c>
+      <c r="H7" s="4">
+        <f>D7/(A7/10)</f>
+        <v>979.13468839762</v>
+      </c>
+      <c r="I7" s="2">
+        <f>E7-F7*B7/10-H7*A7/10</f>
+        <v>22868.8819122034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16938.4381519749</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1558.58893493848</v>
+      </c>
+      <c r="E8" s="3">
+        <v>26529.6354747144</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5355.07225853395</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1039.05928995899</v>
+      </c>
+      <c r="H8" s="4">
+        <f>D8/(A8/10)</f>
+        <v>1039.05928995899</v>
+      </c>
+      <c r="I8" s="2">
+        <f>E8-F8*B8/10-H8*A8/10</f>
+        <v>16938.438151975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11337.72815262</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1674.73960492457</v>
+      </c>
+      <c r="E9" s="3">
+        <v>26552.8751082845</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5416.16294029595</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1116.49306994971</v>
+      </c>
+      <c r="H9" s="4">
+        <f>D9/(A9/10)</f>
+        <v>1116.49306994971</v>
+      </c>
+      <c r="I9" s="2">
+        <f>E9-F9*B9/10-H9*A9/10</f>
+        <v>11337.7281526201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5609.15779122096</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1698.95567656718</v>
+      </c>
+      <c r="E10" s="3">
+        <v>26441.5709876315</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5466.70214852668</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4">
+        <f>D10/(A10/10)</f>
+        <v>1132.63711771145</v>
+      </c>
+      <c r="I10" s="2">
+        <f>E10-F10*B10/10-H10*A10/10</f>
+        <v>5609.15779122094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4423.41752369684</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1366.40878365323</v>
+      </c>
+      <c r="E11" s="3">
+        <v>24708.3904787443</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4204.12537142095</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4">
+        <f>D11/(A11/10)</f>
+        <v>910.939189102153</v>
+      </c>
+      <c r="I11" s="2">
+        <f>E11-F11*B11/10-H11*A11/10</f>
+        <v>4423.41752369679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>22041.5253622896</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2156.83734014889</v>
+      </c>
+      <c r="E13" s="3">
+        <v>26751.4555867529</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5106.18576862877</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="4">
+        <f>D13/(A13/10)</f>
+        <v>862.734936059556</v>
+      </c>
+      <c r="I13" s="2">
+        <f>E13-F13*B13/10-H13*A13/10</f>
+        <v>22041.5253622896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>16600.9034162897</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1854.27540132908</v>
+      </c>
+      <c r="E14" s="3">
+        <v>24979.5766405771</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4349.59854863886</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="4">
+        <f>D14/(A14/10)</f>
+        <v>741.710160531632</v>
+      </c>
+      <c r="I14" s="2">
+        <f>E14-F14*B14/10-H14*A14/10</f>
+        <v>16600.9034162897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10617.6593818875</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2448.72543701274</v>
+      </c>
+      <c r="E15" s="3">
+        <v>26438.1264272539</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5348.69664334147</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="4">
+        <f>D15/(A15/10)</f>
+        <v>979.490174805096</v>
+      </c>
+      <c r="I15" s="2">
+        <f>E15-F15*B15/10-H15*A15/10</f>
+        <v>10617.6593818875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5363.41740859479</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2309.98869400195</v>
+      </c>
+      <c r="E16" s="3">
+        <v>25649.9804459035</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5136.16409808765</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4">
+        <f>D16/(A16/10)</f>
+        <v>923.99547760078</v>
+      </c>
+      <c r="I16" s="2">
+        <f>E16-F16*B16/10-H16*A16/10</f>
+        <v>5363.41740859477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3950.78081477096</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2045.97282713825</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24663.3630846766</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4148.13543172609</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="4">
+        <f>D17/(A17/10)</f>
+        <v>818.3891308553</v>
+      </c>
+      <c r="I17" s="2">
+        <f>E17-F17*B17/10-H17*A17/10</f>
+        <v>3950.78081477095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>21301.0932412533</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2689.15671888278</v>
+      </c>
+      <c r="E19" s="3">
+        <v>26483.3164554029</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4986.13299053364</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="4">
+        <f>D19/(A19/10)</f>
+        <v>768.330491109366</v>
+      </c>
+      <c r="I19" s="2">
+        <f>E19-F19*B19/10-H19*A19/10</f>
+        <v>21301.0932412533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15952.1391967884</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2348.11148350136</v>
+      </c>
+      <c r="E20" s="3">
+        <v>24791.0104054249</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4327.17315009009</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="4">
+        <f>D20/(A20/10)</f>
+        <v>670.888995286103</v>
+      </c>
+      <c r="I20" s="2">
+        <f>E20-F20*B20/10-H20*A20/10</f>
+        <v>15952.1391967884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9914.53840898801</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3090.1880246314</v>
+      </c>
+      <c r="E21" s="3">
+        <v>26229.878567043</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5290.06085336945</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="4">
+        <f>D21/(A21/10)</f>
+        <v>882.9108641804</v>
+      </c>
+      <c r="I21" s="2">
+        <f>E21-F21*B21/10-H21*A21/10</f>
+        <v>9914.53840898798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4559.05395445629</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2939.44078235199</v>
+      </c>
+      <c r="E22" s="3">
+        <v>25452.2927864814</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5129.65658562091</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="4">
+        <f>D22/(A22/10)</f>
+        <v>839.84022352914</v>
+      </c>
+      <c r="I22" s="2">
+        <f>E22-F22*B22/10-H22*A22/10</f>
+        <v>4559.05395445623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-1552.69679110458</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3364.16556822868</v>
+      </c>
+      <c r="E23" s="3">
+        <v>25996.1309453198</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5374.36937071016</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="4">
+        <f>D23/(A23/10)</f>
+        <v>961.190162351051</v>
+      </c>
+      <c r="I23" s="2">
+        <f>E23-F23*B23/10-H23*A23/10</f>
+        <v>-1552.6967911046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20685.7061887742</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3125.07067389461</v>
+      </c>
+      <c r="E25" s="3">
+        <v>26242.2846228413</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4863.01552034495</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="4">
+        <f>D25/(A25/10)</f>
+        <v>694.460149754358</v>
+      </c>
+      <c r="I25" s="2">
+        <f>E25-F25*B25/10-H25*A25/10</f>
+        <v>20685.7061887742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15481.2569318127</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2655.69615216044</v>
+      </c>
+      <c r="E26" s="3">
+        <v>24464.3621526199</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4218.27271243119</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="4">
+        <f>D26/(A26/10)</f>
+        <v>590.154700480098</v>
+      </c>
+      <c r="I26" s="2">
+        <f>E26-F26*B26/10-H26*A26/10</f>
+        <v>15481.2569318127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>11261.1618505603</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2795.15425813637</v>
+      </c>
+      <c r="E27" s="3">
+        <v>24323.7162467766</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4106.96005523197</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="4">
+        <f>D27/(A27/10)</f>
+        <v>621.145390696971</v>
+      </c>
+      <c r="I27" s="2">
+        <f>E27-F27*B27/10-H27*A27/10</f>
+        <v>11261.1618505603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3834.65058960708</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3505.16868294349</v>
+      </c>
+      <c r="E28" s="3">
+        <v>25280.8681542877</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5126.01396621063</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="4">
+        <f>D28/(A28/10)</f>
+        <v>778.926373987442</v>
+      </c>
+      <c r="I28" s="2">
+        <f>E28-F28*B28/10-H28*A28/10</f>
+        <v>3834.650589607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-2178.4902476531</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4083.08602731865</v>
+      </c>
+      <c r="E29" s="3">
+        <v>25920.1513435041</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5336.79012529747</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="4">
+        <f>D29/(A29/10)</f>
+        <v>907.352450515256</v>
+      </c>
+      <c r="I29" s="2">
+        <f>E29-F29*B29/10-H29*A29/10</f>
+        <v>-2178.49024765316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>23838.2958690478</v>
+      </c>
+      <c r="D31">
+        <v>566.614325016875</v>
+      </c>
+      <c r="E31">
+        <v>26964.2756854474</v>
+      </c>
+      <c r="F31">
+        <v>5118.73098276545</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" ref="H31:H54" si="0">D31/(A31/10)</f>
+        <v>1133.22865003375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>18717.8629728573</v>
+      </c>
+      <c r="D32">
+        <v>566.695391809782</v>
+      </c>
+      <c r="E32">
+        <v>26964.3360404081</v>
+      </c>
+      <c r="F32">
+        <v>5119.85178382734</v>
+      </c>
+      <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>1316.2592828714</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="1"/>
-        <v>12180.9167672436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4">
+        <v>1133.39078361956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>13591.1978512879</v>
+      </c>
+      <c r="D33">
+        <v>566.496236612103</v>
+      </c>
+      <c r="E33">
+        <v>26963.8382887255</v>
+      </c>
+      <c r="F33">
+        <v>5122.4576803302</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
+        <v>1132.99247322421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
         <v>35</v>
       </c>
-      <c r="C5" s="4">
-        <v>6325.24826928728</v>
-      </c>
-      <c r="D5" s="3">
-        <v>682.522567177045</v>
-      </c>
-      <c r="E5" s="5">
-        <v>26587.69079993</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5594.26284670449</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1365.04513435409</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="C34">
+        <v>8461.61851174477</v>
+      </c>
+      <c r="D34">
+        <v>566.37759792705</v>
+      </c>
+      <c r="E34">
+        <v>26963.5421954506</v>
+      </c>
+      <c r="F34">
+        <v>5124.44173879393</v>
+      </c>
+      <c r="H34" s="4">
         <f t="shared" si="0"/>
-        <v>1365.04513435409</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="1"/>
-        <v>6325.24826928724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4">
+        <v>1132.7551958541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>3330.06499223799</v>
+      </c>
+      <c r="D35">
+        <v>566.265367514246</v>
+      </c>
+      <c r="E35">
+        <v>26963.279088119</v>
+      </c>
+      <c r="F35">
+        <v>5125.98860630373</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="0"/>
+        <v>1132.53073502849</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
         <v>15</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
-        <v>22868.8819122035</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1468.70203259643</v>
-      </c>
-      <c r="E6" s="5">
-        <v>26949.5623988106</v>
-      </c>
-      <c r="F6" s="5">
-        <v>5223.9569080215</v>
-      </c>
-      <c r="G6" s="7">
-        <v>979.134688397624</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="C36">
+        <v>22895.5170149353</v>
+      </c>
+      <c r="D36">
+        <v>1380.29237765313</v>
+      </c>
+      <c r="E36">
+        <v>26752.5769601602</v>
+      </c>
+      <c r="F36">
+        <v>4953.53513514351</v>
+      </c>
+      <c r="H36" s="4">
         <f t="shared" si="0"/>
-        <v>979.13468839762</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="1"/>
-        <v>22868.8819122034</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4">
+        <v>920.19491843542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B37">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
-        <v>16938.4381519749</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1558.58893493848</v>
-      </c>
-      <c r="E7" s="5">
-        <v>26529.6354747144</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5355.07225853395</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1039.05928995899</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="C37">
+        <v>17938.7682436173</v>
+      </c>
+      <c r="D37">
+        <v>1380.44937964868</v>
+      </c>
+      <c r="E37">
+        <v>26752.7326659602</v>
+      </c>
+      <c r="F37">
+        <v>4955.67669512951</v>
+      </c>
+      <c r="H37" s="4">
         <f t="shared" si="0"/>
-        <v>1039.05928995899</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="1"/>
-        <v>16938.438151975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4">
+        <v>920.299586432453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
         <v>15</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B38">
         <v>25</v>
       </c>
-      <c r="C8" s="4">
-        <v>11337.72815262</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1674.73960492457</v>
-      </c>
-      <c r="E8" s="5">
-        <v>26552.8751082845</v>
-      </c>
-      <c r="F8" s="5">
-        <v>5416.16294029595</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1116.49306994971</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="C38">
+        <v>12977.8128012063</v>
+      </c>
+      <c r="D38">
+        <v>1380.65721265065</v>
+      </c>
+      <c r="E38">
+        <v>26752.9224216973</v>
+      </c>
+      <c r="F38">
+        <v>4957.78096313614</v>
+      </c>
+      <c r="H38" s="4">
         <f t="shared" si="0"/>
-        <v>1116.49306994971</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="1"/>
-        <v>11337.7281526201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4">
+        <v>920.4381417671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
         <v>15</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B39">
         <v>35</v>
       </c>
-      <c r="C9" s="4">
-        <v>5609.15779122096</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1698.95567656718</v>
-      </c>
-      <c r="E9" s="5">
-        <v>26441.5709876315</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5466.70214852668</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6">
+      <c r="C39">
+        <v>8013.69304802607</v>
+      </c>
+      <c r="D39">
+        <v>1380.74336190806</v>
+      </c>
+      <c r="E39">
+        <v>26752.9129400437</v>
+      </c>
+      <c r="F39">
+        <v>4959.56472288844</v>
+      </c>
+      <c r="H39" s="4">
         <f t="shared" si="0"/>
-        <v>1132.63711771145</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="1"/>
-        <v>5609.15779122094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4">
+        <v>920.495574605373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
         <v>15</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B40">
         <v>45</v>
       </c>
-      <c r="C10" s="4">
-        <v>4423.41752369684</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1366.40878365323</v>
-      </c>
-      <c r="E10" s="5">
-        <v>24708.3904787443</v>
-      </c>
-      <c r="F10" s="5">
-        <v>4204.12537142095</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6">
+      <c r="C40">
+        <v>3049.23837609069</v>
+      </c>
+      <c r="D40">
+        <v>1380.82790068153</v>
+      </c>
+      <c r="E40">
+        <v>26752.8772579472</v>
+      </c>
+      <c r="F40">
+        <v>4960.62466248333</v>
+      </c>
+      <c r="H40" s="4">
         <f t="shared" si="0"/>
-        <v>910.939189102153</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="1"/>
-        <v>4423.41752369679</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4">
+        <v>920.551933787687</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>25</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>17463.6864922599</v>
+      </c>
+      <c r="D41">
+        <v>2100.75889952804</v>
+      </c>
+      <c r="E41">
+        <v>26814.060375519</v>
+      </c>
+      <c r="F41">
+        <v>4833.07665582065</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="0"/>
+        <v>840.303559811216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>12627.4247147821</v>
+      </c>
+      <c r="D42">
+        <v>2102.78935595684</v>
+      </c>
+      <c r="E42">
+        <v>26816.0204910314</v>
+      </c>
+      <c r="F42">
+        <v>4834.32256811698</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="0"/>
+        <v>841.115742382736</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>25</v>
+      </c>
+      <c r="B43">
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <v>7804.48651169761</v>
+      </c>
+      <c r="D43">
+        <v>2099.20096532232</v>
+      </c>
+      <c r="E43">
+        <v>26816.2435637524</v>
+      </c>
+      <c r="F43">
+        <v>4832.15888192357</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="0"/>
+        <v>839.680386128928</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>25</v>
+      </c>
+      <c r="B44">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>2962.76055607321</v>
+      </c>
+      <c r="D44">
+        <v>2097.06690765671</v>
+      </c>
+      <c r="E44">
+        <v>26813.9467644868</v>
+      </c>
+      <c r="F44">
+        <v>4834.24873350154</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="0"/>
+        <v>838.826763062684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>35</v>
+      </c>
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
-        <v>22041.5253622896</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2156.83734014889</v>
-      </c>
-      <c r="E11" s="5">
-        <v>26751.4555867529</v>
-      </c>
-      <c r="F11" s="5">
-        <v>5106.18576862877</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="6">
+      <c r="C45">
+        <v>21584.7336418675</v>
+      </c>
+      <c r="D45">
+        <v>2616.91257589402</v>
+      </c>
+      <c r="E45">
+        <v>26546.8093764795</v>
+      </c>
+      <c r="F45">
+        <v>4690.32631743603</v>
+      </c>
+      <c r="H45" s="4">
         <f t="shared" si="0"/>
-        <v>862.734936059556</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="1"/>
-        <v>22041.5253622896</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4">
+        <v>747.689307398291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>35</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>16893.1904805401</v>
+      </c>
+      <c r="D46">
+        <v>2615.20593673871</v>
+      </c>
+      <c r="E46">
+        <v>26546.4385410134</v>
+      </c>
+      <c r="F46">
+        <v>4692.02808248966</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="0"/>
+        <v>747.20169621106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>35</v>
+      </c>
+      <c r="B47">
         <v>25</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C47">
+        <v>12191.541721951</v>
+      </c>
+      <c r="D47">
+        <v>2616.85520666425</v>
+      </c>
+      <c r="E47">
+        <v>26548.0195493997</v>
+      </c>
+      <c r="F47">
+        <v>4695.84904831377</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="0"/>
+        <v>747.672916189786</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>35</v>
+      </c>
+      <c r="B48">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>7505.72272864222</v>
+      </c>
+      <c r="D48">
+        <v>2616.55373023208</v>
+      </c>
+      <c r="E48">
+        <v>26547.7070260977</v>
+      </c>
+      <c r="F48">
+        <v>4692.98016206384</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="0"/>
+        <v>747.586780066309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <v>2812.66959004735</v>
+      </c>
+      <c r="D49">
+        <v>2614.01070458463</v>
+      </c>
+      <c r="E49">
+        <v>26544.9672587594</v>
+      </c>
+      <c r="F49">
+        <v>4692.95265869499</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="0"/>
+        <v>746.860201309894</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>20930.5537767711</v>
+      </c>
+      <c r="D50">
+        <v>3033.51019216668</v>
+      </c>
+      <c r="E50">
+        <v>26254.235938178</v>
+      </c>
+      <c r="F50">
+        <v>4580.3439384804</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="0"/>
+        <v>674.11337603704</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
         <v>15</v>
       </c>
-      <c r="C12" s="4">
-        <v>16600.9034162897</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1854.27540132908</v>
-      </c>
-      <c r="E12" s="5">
-        <v>24979.5766405771</v>
-      </c>
-      <c r="F12" s="5">
-        <v>4349.59854863886</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6">
+      <c r="C51">
+        <v>16345.4193463928</v>
+      </c>
+      <c r="D51">
+        <v>3034.82995077132</v>
+      </c>
+      <c r="E51">
+        <v>26255.586368492</v>
+      </c>
+      <c r="F51">
+        <v>4583.5580475519</v>
+      </c>
+      <c r="H51" s="4">
         <f t="shared" si="0"/>
-        <v>741.710160531632</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="1"/>
-        <v>16600.9034162897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4">
+        <v>674.40665572696</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>45</v>
+      </c>
+      <c r="B52">
         <v>25</v>
       </c>
-      <c r="B13" s="3">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4">
-        <v>10617.6593818875</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2448.72543701274</v>
-      </c>
-      <c r="E13" s="5">
-        <v>26438.1264272539</v>
-      </c>
-      <c r="F13" s="5">
-        <v>5348.69664334147</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="6">
+      <c r="C52">
+        <v>11766.9019271072</v>
+      </c>
+      <c r="D52">
+        <v>3035.87636568549</v>
+      </c>
+      <c r="E52">
+        <v>26256.5749740302</v>
+      </c>
+      <c r="F52">
+        <v>4581.518672495</v>
+      </c>
+      <c r="H52" s="4">
         <f t="shared" si="0"/>
-        <v>979.490174805096</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="1"/>
-        <v>10617.6593818875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3">
+        <v>674.639192374553</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53">
         <v>35</v>
       </c>
-      <c r="C14" s="4">
-        <v>5363.41740859479</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2309.98869400195</v>
-      </c>
-      <c r="E14" s="5">
-        <v>25649.9804459035</v>
-      </c>
-      <c r="F14" s="5">
-        <v>5136.16409808765</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="6">
+      <c r="C53">
+        <v>7153.51633859569</v>
+      </c>
+      <c r="D53">
+        <v>3053.45617624493</v>
+      </c>
+      <c r="E53">
+        <v>26267.671008126</v>
+      </c>
+      <c r="F53">
+        <v>4588.77099808153</v>
+      </c>
+      <c r="H53" s="4">
         <f t="shared" si="0"/>
-        <v>923.99547760078</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="1"/>
-        <v>5363.41740859477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3">
+        <v>678.545816943318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
         <v>45</v>
       </c>
-      <c r="C15" s="4">
-        <v>3950.78081477096</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2045.97282713825</v>
-      </c>
-      <c r="E15" s="5">
-        <v>24663.3630846766</v>
-      </c>
-      <c r="F15" s="5">
-        <v>4148.13543172609</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="6">
+      <c r="B54">
+        <v>45</v>
+      </c>
+      <c r="C54">
+        <v>2547.7337737252</v>
+      </c>
+      <c r="D54">
+        <v>3067.79687028891</v>
+      </c>
+      <c r="E54">
+        <v>26281.8880158344</v>
+      </c>
+      <c r="F54">
+        <v>4592.52386040452</v>
+      </c>
+      <c r="H54" s="4">
         <f t="shared" si="0"/>
-        <v>818.3891308553</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="1"/>
-        <v>3950.78081477095</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4">
-        <v>35</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4">
-        <v>21301.0932412533</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2689.15671888278</v>
-      </c>
-      <c r="E16" s="5">
-        <v>26483.3164554029</v>
-      </c>
-      <c r="F16" s="5">
-        <v>4986.13299053364</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="6">
-        <f t="shared" si="0"/>
-        <v>768.330491109366</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="1"/>
-        <v>21301.0932412533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4">
-        <v>15952.1391967884</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2348.11148350136</v>
-      </c>
-      <c r="E17" s="5">
-        <v>24791.0104054249</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4327.17315009009</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="6">
-        <f t="shared" si="0"/>
-        <v>670.888995286103</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="1"/>
-        <v>15952.1391967884</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4">
-        <v>9914.53840898801</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3090.1880246314</v>
-      </c>
-      <c r="E18" s="5">
-        <v>26229.878567043</v>
-      </c>
-      <c r="F18" s="5">
-        <v>5290.06085336945</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="6">
-        <f t="shared" si="0"/>
-        <v>882.9108641804</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="1"/>
-        <v>9914.53840898798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3">
-        <v>35</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4559.05395445629</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2939.44078235199</v>
-      </c>
-      <c r="E19" s="5">
-        <v>25452.2927864814</v>
-      </c>
-      <c r="F19" s="5">
-        <v>5129.65658562091</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="6">
-        <f t="shared" si="0"/>
-        <v>839.84022352914</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="1"/>
-        <v>4559.05395445623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3">
-        <v>45</v>
-      </c>
-      <c r="C20" s="4">
-        <v>-1552.69679110458</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3364.16556822868</v>
-      </c>
-      <c r="E20" s="5">
-        <v>25996.1309453198</v>
-      </c>
-      <c r="F20" s="5">
-        <v>5374.36937071016</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="6">
-        <f t="shared" si="0"/>
-        <v>961.190162351051</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="1"/>
-        <v>-1552.6967911046</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4">
-        <v>45</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4">
-        <v>20685.7061887742</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3125.07067389461</v>
-      </c>
-      <c r="E21" s="5">
-        <v>26242.2846228413</v>
-      </c>
-      <c r="F21" s="5">
-        <v>4863.01552034495</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="6">
-        <f t="shared" si="0"/>
-        <v>694.460149754358</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="1"/>
-        <v>20685.7061887742</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="4">
-        <v>45</v>
-      </c>
-      <c r="B22" s="3">
-        <v>15</v>
-      </c>
-      <c r="C22" s="4">
-        <v>15481.2569318127</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2655.69615216044</v>
-      </c>
-      <c r="E22" s="5">
-        <v>24464.3621526199</v>
-      </c>
-      <c r="F22" s="5">
-        <v>4218.27271243119</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="6">
-        <f t="shared" si="0"/>
-        <v>590.154700480098</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="1"/>
-        <v>15481.2569318127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="4">
-        <v>45</v>
-      </c>
-      <c r="B23" s="3">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4">
-        <v>11261.1618505603</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2795.15425813637</v>
-      </c>
-      <c r="E23" s="5">
-        <v>24323.7162467766</v>
-      </c>
-      <c r="F23" s="5">
-        <v>4106.96005523197</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="6">
-        <f t="shared" si="0"/>
-        <v>621.145390696971</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="1"/>
-        <v>11261.1618505603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4">
-        <v>45</v>
-      </c>
-      <c r="B24" s="3">
-        <v>35</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3834.65058960708</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3505.16868294349</v>
-      </c>
-      <c r="E24" s="5">
-        <v>25280.8681542877</v>
-      </c>
-      <c r="F24" s="5">
-        <v>5126.01396621063</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="6">
-        <f t="shared" si="0"/>
-        <v>778.926373987442</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" si="1"/>
-        <v>3834.650589607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4">
-        <v>45</v>
-      </c>
-      <c r="B25" s="3">
-        <v>45</v>
-      </c>
-      <c r="C25" s="4">
-        <v>-2178.4902476531</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4083.08602731865</v>
-      </c>
-      <c r="E25" s="5">
-        <v>25920.1513435041</v>
-      </c>
-      <c r="F25" s="5">
-        <v>5336.79012529747</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="6">
-        <f t="shared" si="0"/>
-        <v>907.352450515256</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="1"/>
-        <v>-2178.49024765316</v>
+        <v>681.73263784198</v>
       </c>
     </row>
   </sheetData>
@@ -6384,4 +7521,367 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="15" max="18" width="12.625"/>
+    <col min="21" max="24" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22041.5253622896</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2156.83734014889</v>
+      </c>
+      <c r="E2" s="3">
+        <v>26751.4555867529</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5106.18576862877</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H7" si="0">D2/(A2/10)</f>
+        <v>862.734936059556</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I7" si="1">E2-F2*B2/10-H2*A2/10</f>
+        <v>22041.5253622896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16600.9034162897</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1854.27540132908</v>
+      </c>
+      <c r="E3" s="3">
+        <v>24979.5766405771</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4349.59854863886</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>741.710160531632</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="1"/>
+        <v>16600.9034162897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>21301.0932412533</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2689.15671888278</v>
+      </c>
+      <c r="E4" s="3">
+        <v>26483.3164554029</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4986.13299053364</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>768.330491109366</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>21301.0932412533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15952.1391967884</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2348.11148350136</v>
+      </c>
+      <c r="E5" s="3">
+        <v>24791.0104054249</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4327.17315009009</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>670.888995286103</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>15952.1391967884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20685.7061887742</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3125.07067389461</v>
+      </c>
+      <c r="E6" s="3">
+        <v>26242.2846228413</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4863.01552034495</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>694.460149754358</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>20685.7061887742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15481.2569318127</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2655.69615216044</v>
+      </c>
+      <c r="E7" s="3">
+        <v>24464.3621526199</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4218.27271243119</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>590.154700480098</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>15481.2569318127</v>
+      </c>
+    </row>
+    <row r="13" spans="13:18">
+      <c r="M13" s="5">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>16600.9034162897</v>
+      </c>
+      <c r="P13">
+        <v>1854.27540132908</v>
+      </c>
+      <c r="Q13">
+        <v>24979.5766405771</v>
+      </c>
+      <c r="R13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="13:13">
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="13:18">
+      <c r="M15" s="5">
+        <v>25</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
+      <c r="O15">
+        <v>18848.7446642991</v>
+      </c>
+      <c r="P15">
+        <v>1909.70233630127</v>
+      </c>
+      <c r="Q15">
+        <v>26195.9134050332</v>
+      </c>
+      <c r="R15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="13:18">
+      <c r="M16" s="5">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <v>17463.6864922599</v>
+      </c>
+      <c r="P16">
+        <v>2100.75889952804</v>
+      </c>
+      <c r="Q16">
+        <v>26814.060375519</v>
+      </c>
+      <c r="R16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="13:18">
+      <c r="M17" s="5">
+        <v>35</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>21584.7336418675</v>
+      </c>
+      <c r="P17">
+        <v>2616.91257589402</v>
+      </c>
+      <c r="Q17">
+        <v>26546.8093764795</v>
+      </c>
+      <c r="R17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="13:18">
+      <c r="M18">
+        <v>35</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+      <c r="O18">
+        <v>16893.1904805402</v>
+      </c>
+      <c r="P18">
+        <v>2615.20593673871</v>
+      </c>
+      <c r="Q18">
+        <v>26546.4385410134</v>
+      </c>
+      <c r="R18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="13:18">
+      <c r="M19" s="5">
+        <v>45</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>20930.5537767714</v>
+      </c>
+      <c r="P19">
+        <v>3033.51019216668</v>
+      </c>
+      <c r="Q19">
+        <v>26254.235938178</v>
+      </c>
+      <c r="R19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="13:18">
+      <c r="M20">
+        <v>45</v>
+      </c>
+      <c r="N20">
+        <v>15</v>
+      </c>
+      <c r="O20">
+        <v>16345.4193463928</v>
+      </c>
+      <c r="P20">
+        <v>3034.82995077132</v>
+      </c>
+      <c r="Q20">
+        <v>26255.5863684919</v>
+      </c>
+      <c r="R20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>